--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,159 +43,168 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>junk</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>paint</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>sound</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>fit</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -205,36 +214,39 @@
     <t>first</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>made</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
+    <t>got</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -250,100 +262,103 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>love</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>cute</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
+    <t>grandson</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>kids</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>son</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>year</t>
@@ -707,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <v>0.9259259259259259</v>
@@ -826,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K4">
-        <v>0.9076923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,10 +944,10 @@
         <v>0.75</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,31 +959,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="L6">
+        <v>77</v>
+      </c>
+      <c r="M6">
+        <v>77</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6">
-        <v>0.8709677419354839</v>
-      </c>
-      <c r="L6">
-        <v>81</v>
-      </c>
-      <c r="M6">
-        <v>81</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7311827956989247</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>0.7358490566037735</v>
+        <v>0.78125</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1076,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7087378640776699</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>0.6231884057971014</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6959459459459459</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>0.6120689655172413</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L10">
-        <v>426</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>270</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.6553398058252428</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K11">
-        <v>0.5767634854771784</v>
+        <v>0.5809128630705395</v>
       </c>
       <c r="L11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6052631578947368</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K12">
-        <v>0.5430680885972108</v>
+        <v>0.5467213114754098</v>
       </c>
       <c r="L12">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M12">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K13">
-        <v>0.4716981132075472</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>0.4578313253012048</v>
+        <v>0.4801223241590214</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="M14">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1391,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5662650602409639</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>0.4495412844036697</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="L15">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>180</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C16">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,31 +1459,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>0.4453781512605042</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L16">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5370370370370371</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K17">
-        <v>0.4126984126984127</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="L17">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1547,16 +1562,16 @@
         <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K18">
-        <v>0.3496503496503496</v>
+        <v>0.34375</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K19">
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4736842105263158</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>0.2730923694779117</v>
+        <v>0.288</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4724409448818898</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>0.253968253968254</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1741,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4691943127962085</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,31 +1759,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K22">
-        <v>0.2526881720430108</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>139</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.449438202247191</v>
+        <v>0.4265402843601896</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,31 +1809,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>121</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23">
+        <v>0.2648648648648649</v>
+      </c>
+      <c r="L23">
         <v>49</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23">
-        <v>0.25</v>
-      </c>
-      <c r="L23">
-        <v>31</v>
-      </c>
       <c r="M23">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,49 +1841,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4363636363636363</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24">
+        <v>0.2527472527472527</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
         <v>24</v>
       </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>31</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24">
-        <v>0.2300263388937665</v>
-      </c>
-      <c r="L24">
-        <v>262</v>
-      </c>
-      <c r="M24">
-        <v>264</v>
-      </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>877</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4333333333333333</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0.1708683473389356</v>
+        <v>0.232</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>0.97</v>
@@ -1918,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.405940594059406</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,31 +1959,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K26">
-        <v>0.1637312459230267</v>
+        <v>0.2221246707638279</v>
       </c>
       <c r="L26">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1282</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4032258064516129</v>
+        <v>0.375</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K27">
-        <v>0.1623376623376623</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2018,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3650793650793651</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2044,31 +2059,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K28">
-        <v>0.1572327044025157</v>
+        <v>0.1504178272980501</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>134</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3492063492063492</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2094,31 +2109,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K29">
-        <v>0.1550802139037433</v>
+        <v>0.1478494623655914</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2141,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.34375</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K30">
-        <v>0.1167785234899329</v>
+        <v>0.1457384515289525</v>
       </c>
       <c r="L30">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="M30">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>658</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3418803418803419</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2194,31 +2209,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K31">
-        <v>0.1149825783972125</v>
+        <v>0.1265432098765432</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2226,13 +2241,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2989690721649484</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C32">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2244,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K32">
-        <v>0.1050583657587549</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2276,13 +2291,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2974683544303797</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C33">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2294,31 +2309,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K33">
-        <v>0.09259259259259259</v>
+        <v>0.09421265141318977</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>294</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2326,49 +2341,49 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.271356783919598</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K34">
-        <v>0.08398950131233596</v>
+        <v>0.08709677419354839</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="O34">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>349</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2376,13 +2391,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2681159420289855</v>
+        <v>0.275</v>
       </c>
       <c r="C35">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2394,31 +2409,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K35">
-        <v>0.08080808080808081</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L35">
         <v>24</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N35">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="O35">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2426,49 +2441,49 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2653061224489796</v>
+        <v>0.2654545454545454</v>
       </c>
       <c r="C36">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>0.01</v>
+      </c>
+      <c r="F36">
+        <v>0.99</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>202</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36">
+        <v>0.06753246753246753</v>
+      </c>
+      <c r="L36">
         <v>26</v>
       </c>
-      <c r="D36">
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>72</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36">
-        <v>0.06440071556350627</v>
-      </c>
-      <c r="L36">
-        <v>36</v>
-      </c>
       <c r="M36">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N36">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="O36">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>523</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2476,49 +2491,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2642857142857143</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K37">
-        <v>0.06352941176470588</v>
+        <v>0.05892857142857143</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N37">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="O37">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>398</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2526,13 +2541,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.25</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2544,31 +2559,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K38">
-        <v>0.06204906204906205</v>
+        <v>0.05772005772005772</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N38">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="O38">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2576,13 +2591,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2405063291139241</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2594,31 +2609,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K39">
-        <v>0.0508130081300813</v>
+        <v>0.0539906103286385</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N39">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="O39">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>467</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2626,49 +2641,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2403560830860534</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C40">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>512</v>
+        <v>236</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K40">
-        <v>0.03009575923392613</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.26</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O40">
-        <v>0.74</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>709</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2676,25 +2691,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2371134020618557</v>
+        <v>0.2425595238095238</v>
       </c>
       <c r="C41">
+        <v>163</v>
+      </c>
+      <c r="D41">
+        <v>165</v>
+      </c>
+      <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="F41">
+        <v>0.99</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>509</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>0.03432835820895522</v>
+      </c>
+      <c r="L41">
         <v>23</v>
       </c>
-      <c r="D41">
-        <v>23</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>74</v>
+      <c r="M41">
+        <v>45</v>
+      </c>
+      <c r="N41">
+        <v>0.51</v>
+      </c>
+      <c r="O41">
+        <v>0.49</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2702,25 +2741,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2356020942408377</v>
+        <v>0.24</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2728,13 +2767,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2334293948126801</v>
+        <v>0.239193083573487</v>
       </c>
       <c r="C43">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43">
         <v>0.01</v>
@@ -2746,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2754,13 +2793,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2285714285714286</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2772,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2780,13 +2819,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2229299363057325</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2798,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2806,25 +2845,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2207505518763797</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>353</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2832,13 +2871,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2033898305084746</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2850,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2858,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2009345794392523</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>171</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2884,25 +2923,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1772151898734177</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2910,25 +2949,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.169811320754717</v>
+        <v>0.1880530973451327</v>
       </c>
       <c r="C50">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D50">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>220</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2936,25 +2975,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1657458563535912</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2962,25 +3001,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.163265306122449</v>
+        <v>0.1546762589928058</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E52">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>205</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2988,25 +3027,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.15625</v>
+        <v>0.1519337016574586</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>162</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3014,25 +3053,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1487179487179487</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3040,25 +3079,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1451612903225807</v>
+        <v>0.1444759206798867</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F55">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>159</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3066,25 +3105,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1354401805869075</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>383</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3092,25 +3131,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1318681318681319</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E57">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F57">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>158</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3118,25 +3157,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1186440677966102</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>312</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3144,25 +3183,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1181318681318681</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C59">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F59">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>321</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3170,25 +3209,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1096345514950166</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="C60">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="F60">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>536</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3196,25 +3235,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1083032490974729</v>
+        <v>0.1182108626198083</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E61">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F61">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3222,25 +3261,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.09554140127388536</v>
+        <v>0.1109271523178808</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E62">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>284</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3248,25 +3287,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0892018779342723</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D63">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E63">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="F63">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3274,25 +3313,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.08823529411764706</v>
+        <v>0.09443725743855109</v>
       </c>
       <c r="C64">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D64">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E64">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="F64">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>589</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3300,25 +3339,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.08571428571428572</v>
+        <v>0.09175738724727839</v>
       </c>
       <c r="C65">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E65">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F65">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>384</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3326,25 +3365,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.08160621761658031</v>
+        <v>0.07838479809976247</v>
       </c>
       <c r="C66">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="E66">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="F66">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>709</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3352,25 +3391,129 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06048387096774194</v>
+        <v>0.07736389684813753</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E67">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F67">
-        <v>0.79</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>466</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.0707070707070707</v>
+      </c>
+      <c r="C68">
+        <v>35</v>
+      </c>
+      <c r="D68">
+        <v>44</v>
+      </c>
+      <c r="E68">
+        <v>0.2</v>
+      </c>
+      <c r="F68">
+        <v>0.8</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.05299539170506912</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>0.36</v>
+      </c>
+      <c r="F69">
+        <v>0.64</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.04782608695652174</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>31</v>
+      </c>
+      <c r="E70">
+        <v>0.29</v>
+      </c>
+      <c r="F70">
+        <v>0.71</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.03288490284005979</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>45</v>
+      </c>
+      <c r="E71">
+        <v>0.51</v>
+      </c>
+      <c r="F71">
+        <v>0.49</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
